--- a/Sensor1.xlsx
+++ b/Sensor1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sattarha/Documents/TestDrcn2023/tesst From First Experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sattarha/Documents/ComNets-Real-Sensor-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="60">
   <si>
     <t>Time_1</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Humidity_WeatherStation</t>
+  </si>
+  <si>
+    <t>1=Normal</t>
+  </si>
+  <si>
+    <t>0=Abnormal</t>
   </si>
 </sst>
 </file>
@@ -696,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2677"/>
+  <dimension ref="A1:I2407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -709,7 +715,7 @@
     <col min="4" max="4" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -732,7 +738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -755,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -777,8 +783,11 @@
       <c r="G3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="G4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -824,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -847,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -870,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -893,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -916,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -939,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -962,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -985,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1031,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6184,3336 +6196,729 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="E239">
-        <v>30.002400000000002</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1</v>
-      </c>
-      <c r="G239" s="4">
-        <v>0</v>
-      </c>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="E240">
-        <v>30.002400000000002</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1</v>
-      </c>
-      <c r="G240" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="E241">
-        <v>28.891200000000001</v>
-      </c>
-      <c r="F241" t="s">
-        <v>2</v>
-      </c>
-      <c r="G241" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="E242">
-        <v>27.78</v>
-      </c>
-      <c r="F242" t="s">
-        <v>3</v>
-      </c>
-      <c r="G242" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="E243">
-        <v>27.224399999999999</v>
-      </c>
-      <c r="F243" t="s">
-        <v>4</v>
-      </c>
-      <c r="G243" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="E244">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F244" t="s">
-        <v>5</v>
-      </c>
-      <c r="G244" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="E245">
-        <v>22.779599999999999</v>
-      </c>
-      <c r="F245" t="s">
-        <v>6</v>
-      </c>
-      <c r="G245" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="E246">
-        <v>22.224</v>
-      </c>
-      <c r="F246" t="s">
-        <v>7</v>
-      </c>
-      <c r="G246" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="E247">
-        <v>20.0016</v>
-      </c>
-      <c r="F247" t="s">
-        <v>8</v>
-      </c>
-      <c r="G247" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="E248">
-        <v>18.8904</v>
-      </c>
-      <c r="F248" t="s">
-        <v>9</v>
-      </c>
-      <c r="G248" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="E249">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F249" t="s">
-        <v>10</v>
-      </c>
-      <c r="G249" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="E250">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F250" t="s">
-        <v>11</v>
-      </c>
-      <c r="G250" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="E251">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F251" t="s">
-        <v>11</v>
-      </c>
-      <c r="G251" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="E252">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F252" t="s">
-        <v>10</v>
-      </c>
-      <c r="G252" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="E253">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F253" t="s">
-        <v>12</v>
-      </c>
-      <c r="G253" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="E254">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F254" t="s">
-        <v>12</v>
-      </c>
-      <c r="G254" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="E255">
-        <v>13.89</v>
-      </c>
-      <c r="F255" t="s">
-        <v>13</v>
-      </c>
-      <c r="G255" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="E256">
-        <v>13.89</v>
-      </c>
-      <c r="F256" t="s">
-        <v>13</v>
-      </c>
-      <c r="G256" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="E257">
-        <v>13.89</v>
-      </c>
-      <c r="F257" t="s">
-        <v>13</v>
-      </c>
-      <c r="G257" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="E258">
-        <v>13.89</v>
-      </c>
-      <c r="F258" t="s">
-        <v>13</v>
-      </c>
-      <c r="G258" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="E259">
-        <v>13.89</v>
-      </c>
-      <c r="F259" t="s">
-        <v>13</v>
-      </c>
-      <c r="G259" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="E260">
-        <v>12.7788</v>
-      </c>
-      <c r="F260" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="E261">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F261" t="s">
-        <v>12</v>
-      </c>
-      <c r="G261" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="E262">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F262" t="s">
-        <v>12</v>
-      </c>
-      <c r="G262" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="E263">
-        <v>18.8904</v>
-      </c>
-      <c r="F263" t="s">
-        <v>9</v>
-      </c>
-      <c r="G263" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="E264">
-        <v>21.1128</v>
-      </c>
-      <c r="F264" t="s">
-        <v>15</v>
-      </c>
-      <c r="G264" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="E265">
-        <v>22.224</v>
-      </c>
-      <c r="F265" t="s">
-        <v>16</v>
-      </c>
-      <c r="G265" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="E266">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F266" t="s">
-        <v>6</v>
-      </c>
-      <c r="G266" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="E267">
-        <v>25.001999999999999</v>
-      </c>
-      <c r="F267" t="s">
-        <v>5</v>
-      </c>
-      <c r="G267" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="E268">
-        <v>27.224399999999999</v>
-      </c>
-      <c r="F268" t="s">
-        <v>17</v>
-      </c>
-      <c r="G268" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="E269">
-        <v>27.78</v>
-      </c>
-      <c r="F269" t="s">
-        <v>17</v>
-      </c>
-      <c r="G269" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
-        <v>268</v>
-      </c>
-      <c r="E270">
-        <v>28.891200000000001</v>
-      </c>
-      <c r="F270" t="s">
-        <v>3</v>
-      </c>
-      <c r="G270" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
-        <v>269</v>
-      </c>
-      <c r="E271">
-        <v>31.113600000000002</v>
-      </c>
-      <c r="F271" t="s">
-        <v>1</v>
-      </c>
-      <c r="G271" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
-        <v>270</v>
-      </c>
-      <c r="E272">
-        <v>31.113600000000002</v>
-      </c>
-      <c r="F272" t="s">
-        <v>18</v>
-      </c>
-      <c r="G272" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
-        <v>271</v>
-      </c>
-      <c r="E273">
-        <v>32.224800000000002</v>
-      </c>
-      <c r="F273" t="s">
-        <v>19</v>
-      </c>
-      <c r="G273" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
-        <v>272</v>
-      </c>
-      <c r="E274">
-        <v>32.7804</v>
-      </c>
-      <c r="F274" t="s">
-        <v>20</v>
-      </c>
-      <c r="G274" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="E275">
-        <v>32.7804</v>
-      </c>
-      <c r="F275" t="s">
-        <v>20</v>
-      </c>
-      <c r="G275" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="E276">
-        <v>33.891599999999997</v>
-      </c>
-      <c r="F276" t="s">
-        <v>21</v>
-      </c>
-      <c r="G276" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="E277">
-        <v>33.891599999999997</v>
-      </c>
-      <c r="F277" t="s">
-        <v>21</v>
-      </c>
-      <c r="G277" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
-        <v>276</v>
-      </c>
-      <c r="E278">
-        <v>35.002800000000001</v>
-      </c>
-      <c r="F278" t="s">
-        <v>22</v>
-      </c>
-      <c r="G278" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
-        <v>277</v>
-      </c>
-      <c r="E279">
-        <v>35.002800000000001</v>
-      </c>
-      <c r="F279" t="s">
-        <v>23</v>
-      </c>
-      <c r="G279" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
-        <v>278</v>
-      </c>
-      <c r="E280">
-        <v>35.002800000000001</v>
-      </c>
-      <c r="F280" t="s">
-        <v>22</v>
-      </c>
-      <c r="G280" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
-        <v>279</v>
-      </c>
-      <c r="E281">
-        <v>36.113999999999997</v>
-      </c>
-      <c r="F281" t="s">
-        <v>24</v>
-      </c>
-      <c r="G281" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
-        <v>280</v>
-      </c>
-      <c r="E282">
-        <v>35.002800000000001</v>
-      </c>
-      <c r="F282" t="s">
-        <v>24</v>
-      </c>
-      <c r="G282" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
-        <v>281</v>
-      </c>
-      <c r="E283">
-        <v>35.002800000000001</v>
-      </c>
-      <c r="F283" t="s">
-        <v>22</v>
-      </c>
-      <c r="G283" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
-        <v>282</v>
-      </c>
-      <c r="E284">
-        <v>33.891599999999997</v>
-      </c>
-      <c r="F284" t="s">
-        <v>21</v>
-      </c>
-      <c r="G284" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="E285">
-        <v>32.7804</v>
-      </c>
-      <c r="F285" t="s">
-        <v>1</v>
-      </c>
-      <c r="G285" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="E286">
-        <v>32.7804</v>
-      </c>
-      <c r="F286" t="s">
-        <v>19</v>
-      </c>
-      <c r="G286" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="E287">
-        <v>33.891599999999997</v>
-      </c>
-      <c r="F287" t="s">
-        <v>25</v>
-      </c>
-      <c r="G287" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
-        <v>286</v>
-      </c>
-      <c r="E288">
-        <v>33.891599999999997</v>
-      </c>
-      <c r="F288" t="s">
-        <v>25</v>
-      </c>
-      <c r="G288" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="E289">
-        <v>32.224800000000002</v>
-      </c>
-      <c r="F289" t="s">
-        <v>1</v>
-      </c>
-      <c r="G289" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
-        <v>288</v>
-      </c>
-      <c r="E290">
-        <v>31.113600000000002</v>
-      </c>
-      <c r="F290" t="s">
-        <v>26</v>
-      </c>
-      <c r="G290" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="E291">
-        <v>30.002400000000002</v>
-      </c>
-      <c r="F291" t="s">
-        <v>26</v>
-      </c>
-      <c r="G291" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="E292">
-        <v>28.891200000000001</v>
-      </c>
-      <c r="F292" t="s">
-        <v>27</v>
-      </c>
-      <c r="G292" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
-        <v>291</v>
-      </c>
-      <c r="E293">
-        <v>27.224399999999999</v>
-      </c>
-      <c r="F293" t="s">
-        <v>4</v>
-      </c>
-      <c r="G293" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="E294">
-        <v>28.891200000000001</v>
-      </c>
-      <c r="F294" t="s">
-        <v>27</v>
-      </c>
-      <c r="G294" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="E295">
-        <v>27.224399999999999</v>
-      </c>
-      <c r="F295" t="s">
-        <v>4</v>
-      </c>
-      <c r="G295" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="E296">
-        <v>24.224399999999999</v>
-      </c>
-      <c r="F296" t="s">
-        <v>3</v>
-      </c>
-      <c r="G296" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="E297">
-        <v>26.113199999999999</v>
-      </c>
-      <c r="F297" t="s">
-        <v>28</v>
-      </c>
-      <c r="G297" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="E298">
-        <v>26.113199999999999</v>
-      </c>
-      <c r="F298" t="s">
-        <v>28</v>
-      </c>
-      <c r="G298" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
-        <v>297</v>
-      </c>
-      <c r="E299">
-        <v>26.113199999999999</v>
-      </c>
-      <c r="F299" t="s">
-        <v>28</v>
-      </c>
-      <c r="G299" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
-        <v>298</v>
-      </c>
-      <c r="E300">
-        <v>25.001999999999999</v>
-      </c>
-      <c r="F300" t="s">
-        <v>29</v>
-      </c>
-      <c r="G300" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
-        <v>299</v>
-      </c>
-      <c r="E301">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F301" t="s">
-        <v>30</v>
-      </c>
-      <c r="G301" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>300</v>
-      </c>
-      <c r="E302">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F302" t="s">
-        <v>30</v>
-      </c>
-      <c r="G302" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
-        <v>301</v>
-      </c>
-      <c r="E303">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F303" t="s">
-        <v>30</v>
-      </c>
-      <c r="G303" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
-        <v>302</v>
-      </c>
-      <c r="E304">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F304" t="s">
-        <v>30</v>
-      </c>
-      <c r="G304" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
-        <v>303</v>
-      </c>
-      <c r="E305">
-        <v>22.779599999999999</v>
-      </c>
-      <c r="F305" t="s">
-        <v>31</v>
-      </c>
-      <c r="G305" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
-        <v>304</v>
-      </c>
-      <c r="E306">
-        <v>22.224</v>
-      </c>
-      <c r="F306" t="s">
-        <v>32</v>
-      </c>
-      <c r="G306" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
-        <v>305</v>
-      </c>
-      <c r="E307">
-        <v>22.224</v>
-      </c>
-      <c r="F307" t="s">
-        <v>32</v>
-      </c>
-      <c r="G307" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
-        <v>306</v>
-      </c>
-      <c r="E308">
-        <v>21.1128</v>
-      </c>
-      <c r="F308" t="s">
-        <v>33</v>
-      </c>
-      <c r="G308" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
-        <v>307</v>
-      </c>
-      <c r="E309">
-        <v>22.224</v>
-      </c>
-      <c r="F309" t="s">
-        <v>32</v>
-      </c>
-      <c r="G309" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
-        <v>308</v>
-      </c>
-      <c r="E310">
-        <v>22.224</v>
-      </c>
-      <c r="F310" t="s">
-        <v>33</v>
-      </c>
-      <c r="G310" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
-        <v>309</v>
-      </c>
-      <c r="E311">
-        <v>22.779599999999999</v>
-      </c>
-      <c r="F311" t="s">
-        <v>34</v>
-      </c>
-      <c r="G311" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
-        <v>310</v>
-      </c>
-      <c r="E312">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F312" t="s">
-        <v>34</v>
-      </c>
-      <c r="G312" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
-        <v>311</v>
-      </c>
-      <c r="E313">
-        <v>25.001999999999999</v>
-      </c>
-      <c r="F313" t="s">
-        <v>31</v>
-      </c>
-      <c r="G313" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="E314">
-        <v>27.224399999999999</v>
-      </c>
-      <c r="F314" t="s">
-        <v>4</v>
-      </c>
-      <c r="G314" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="E315">
-        <v>28.891200000000001</v>
-      </c>
-      <c r="F315" t="s">
-        <v>3</v>
-      </c>
-      <c r="G315" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
-        <v>314</v>
-      </c>
-      <c r="E316">
-        <v>31.113600000000002</v>
-      </c>
-      <c r="F316" t="s">
-        <v>26</v>
-      </c>
-      <c r="G316" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
-        <v>315</v>
-      </c>
-      <c r="E317">
-        <v>32.7804</v>
-      </c>
-      <c r="F317" t="s">
-        <v>35</v>
-      </c>
-      <c r="G317" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="E318">
-        <v>33.891599999999997</v>
-      </c>
-      <c r="F318" t="s">
-        <v>19</v>
-      </c>
-      <c r="G318" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="E319">
-        <v>35.002800000000001</v>
-      </c>
-      <c r="F319" t="s">
-        <v>36</v>
-      </c>
-      <c r="G319" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="E320">
-        <v>35.002800000000001</v>
-      </c>
-      <c r="F320" t="s">
-        <v>25</v>
-      </c>
-      <c r="G320" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="E321">
-        <v>36.113999999999997</v>
-      </c>
-      <c r="F321" t="s">
-        <v>24</v>
-      </c>
-      <c r="G321" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="E322">
-        <v>37.225200000000001</v>
-      </c>
-      <c r="F322" t="s">
-        <v>24</v>
-      </c>
-      <c r="G322" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="E323">
-        <v>36.113999999999997</v>
-      </c>
-      <c r="F323" t="s">
-        <v>23</v>
-      </c>
-      <c r="G323" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
-        <v>322</v>
-      </c>
-      <c r="E324">
-        <v>36.113999999999997</v>
-      </c>
-      <c r="F324" t="s">
-        <v>23</v>
-      </c>
-      <c r="G324" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
-        <v>323</v>
-      </c>
-      <c r="E325">
-        <v>36.113999999999997</v>
-      </c>
-      <c r="F325" t="s">
-        <v>23</v>
-      </c>
-      <c r="G325" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
-        <v>324</v>
-      </c>
-      <c r="E326">
-        <v>36.113999999999997</v>
-      </c>
-      <c r="F326" t="s">
-        <v>23</v>
-      </c>
-      <c r="G326" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
-        <v>325</v>
-      </c>
-      <c r="E327">
-        <v>36.113999999999997</v>
-      </c>
-      <c r="F327" t="s">
-        <v>25</v>
-      </c>
-      <c r="G327" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
-        <v>326</v>
-      </c>
-      <c r="E328">
-        <v>35.002800000000001</v>
-      </c>
-      <c r="F328" t="s">
-        <v>2</v>
-      </c>
-      <c r="G328" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
-        <v>327</v>
-      </c>
-      <c r="E329">
-        <v>33.891599999999997</v>
-      </c>
-      <c r="F329" t="s">
-        <v>37</v>
-      </c>
-      <c r="G329" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
-        <v>328</v>
-      </c>
-      <c r="E330">
-        <v>33.891599999999997</v>
-      </c>
-      <c r="F330" t="s">
-        <v>28</v>
-      </c>
-      <c r="G330" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
-        <v>329</v>
-      </c>
-      <c r="E331">
-        <v>33.891599999999997</v>
-      </c>
-      <c r="F331" t="s">
-        <v>29</v>
-      </c>
-      <c r="G331" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
-        <v>330</v>
-      </c>
-      <c r="E332">
-        <v>32.224800000000002</v>
-      </c>
-      <c r="F332" t="s">
-        <v>30</v>
-      </c>
-      <c r="G332" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="E333">
-        <v>31.113600000000002</v>
-      </c>
-      <c r="F333" t="s">
-        <v>1</v>
-      </c>
-      <c r="G333" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="E334">
-        <v>31.113600000000002</v>
-      </c>
-      <c r="F334" t="s">
-        <v>1</v>
-      </c>
-      <c r="G334" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="E335">
-        <v>30.002400000000002</v>
-      </c>
-      <c r="F335" t="s">
-        <v>27</v>
-      </c>
-      <c r="G335" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="E336">
-        <v>28.891200000000001</v>
-      </c>
-      <c r="F336" t="s">
-        <v>3</v>
-      </c>
-      <c r="G336" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="E337">
-        <v>27.78</v>
-      </c>
-      <c r="F337" t="s">
-        <v>38</v>
-      </c>
-      <c r="G337" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
-        <v>336</v>
-      </c>
-      <c r="E338">
-        <v>27.224399999999999</v>
-      </c>
-      <c r="F338" t="s">
-        <v>39</v>
-      </c>
-      <c r="G338" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
-        <v>337</v>
-      </c>
-      <c r="E339">
-        <v>26.113199999999999</v>
-      </c>
-      <c r="F339" t="s">
-        <v>40</v>
-      </c>
-      <c r="G339" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
-        <v>338</v>
-      </c>
-      <c r="E340">
-        <v>25.001999999999999</v>
-      </c>
-      <c r="F340" t="s">
-        <v>6</v>
-      </c>
-      <c r="G340" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
-        <v>339</v>
-      </c>
-      <c r="E341">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F341" t="s">
-        <v>7</v>
-      </c>
-      <c r="G341" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
-        <v>340</v>
-      </c>
-      <c r="E342">
-        <v>22.779599999999999</v>
-      </c>
-      <c r="F342" t="s">
-        <v>41</v>
-      </c>
-      <c r="G342" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="E343">
-        <v>22.224</v>
-      </c>
-      <c r="F343" t="s">
-        <v>8</v>
-      </c>
-      <c r="G343" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
-        <v>342</v>
-      </c>
-      <c r="E344">
-        <v>22.224</v>
-      </c>
-      <c r="F344" t="s">
-        <v>8</v>
-      </c>
-      <c r="G344" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
-        <v>343</v>
-      </c>
-      <c r="E345">
-        <v>22.224</v>
-      </c>
-      <c r="F345" t="s">
-        <v>42</v>
-      </c>
-      <c r="G345" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
-        <v>344</v>
-      </c>
-      <c r="E346">
-        <v>22.224</v>
-      </c>
-      <c r="F346" t="s">
-        <v>42</v>
-      </c>
-      <c r="G346" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
-        <v>345</v>
-      </c>
-      <c r="E347">
-        <v>21.1128</v>
-      </c>
-      <c r="F347" t="s">
-        <v>43</v>
-      </c>
-      <c r="G347" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
-        <v>346</v>
-      </c>
-      <c r="E348">
-        <v>20.0016</v>
-      </c>
-      <c r="F348" t="s">
-        <v>44</v>
-      </c>
-      <c r="G348" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
-        <v>347</v>
-      </c>
-      <c r="E349">
-        <v>18.8904</v>
-      </c>
-      <c r="F349" t="s">
-        <v>45</v>
-      </c>
-      <c r="G349" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
-        <v>348</v>
-      </c>
-      <c r="E350">
-        <v>21.1128</v>
-      </c>
-      <c r="F350" t="s">
-        <v>43</v>
-      </c>
-      <c r="G350" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A351" s="1">
-        <v>349</v>
-      </c>
-      <c r="E351">
-        <v>21.1128</v>
-      </c>
-      <c r="F351" t="s">
-        <v>43</v>
-      </c>
-      <c r="G351" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
-        <v>350</v>
-      </c>
-      <c r="E352">
-        <v>20.0016</v>
-      </c>
-      <c r="F352" t="s">
-        <v>44</v>
-      </c>
-      <c r="G352" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
-        <v>351</v>
-      </c>
-      <c r="E353">
-        <v>20.0016</v>
-      </c>
-      <c r="F353" t="s">
-        <v>43</v>
-      </c>
-      <c r="G353" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
-        <v>352</v>
-      </c>
-      <c r="E354">
-        <v>20.0016</v>
-      </c>
-      <c r="F354" t="s">
-        <v>43</v>
-      </c>
-      <c r="G354" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
-        <v>353</v>
-      </c>
-      <c r="E355">
-        <v>18.8904</v>
-      </c>
-      <c r="F355" t="s">
-        <v>45</v>
-      </c>
-      <c r="G355" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
-        <v>354</v>
-      </c>
-      <c r="E356">
-        <v>18.8904</v>
-      </c>
-      <c r="F356" t="s">
-        <v>45</v>
-      </c>
-      <c r="G356" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
-        <v>355</v>
-      </c>
-      <c r="E357">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F357" t="s">
-        <v>12</v>
-      </c>
-      <c r="G357" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
-        <v>356</v>
-      </c>
-      <c r="E358">
-        <v>18.8904</v>
-      </c>
-      <c r="F358" t="s">
-        <v>12</v>
-      </c>
-      <c r="G358" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A359" s="1">
-        <v>357</v>
-      </c>
-      <c r="E359">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F359" t="s">
-        <v>13</v>
-      </c>
-      <c r="G359" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A360" s="1">
-        <v>358</v>
-      </c>
-      <c r="E360">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F360" t="s">
-        <v>13</v>
-      </c>
-      <c r="G360" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A361" s="1">
-        <v>359</v>
-      </c>
-      <c r="E361">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F361" t="s">
-        <v>13</v>
-      </c>
-      <c r="G361" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A362" s="1">
-        <v>360</v>
-      </c>
-      <c r="E362">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F362" t="s">
-        <v>13</v>
-      </c>
-      <c r="G362" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A363" s="1">
-        <v>361</v>
-      </c>
-      <c r="E363">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F363" t="s">
-        <v>13</v>
-      </c>
-      <c r="G363" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A364" s="1">
-        <v>362</v>
-      </c>
-      <c r="E364">
-        <v>18.8904</v>
-      </c>
-      <c r="F364" t="s">
-        <v>13</v>
-      </c>
-      <c r="G364" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A365" s="1">
-        <v>363</v>
-      </c>
-      <c r="E365">
-        <v>18.8904</v>
-      </c>
-      <c r="F365" t="s">
-        <v>13</v>
-      </c>
-      <c r="G365" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
-        <v>364</v>
-      </c>
-      <c r="E366">
-        <v>20.0016</v>
-      </c>
-      <c r="F366" t="s">
-        <v>12</v>
-      </c>
-      <c r="G366" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
-        <v>365</v>
-      </c>
-      <c r="E367">
-        <v>21.1128</v>
-      </c>
-      <c r="F367" t="s">
-        <v>45</v>
-      </c>
-      <c r="G367" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
-        <v>366</v>
-      </c>
-      <c r="E368">
-        <v>21.1128</v>
-      </c>
-      <c r="F368" t="s">
-        <v>44</v>
-      </c>
-      <c r="G368" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
-        <v>367</v>
-      </c>
-      <c r="E369">
-        <v>22.224</v>
-      </c>
-      <c r="F369" t="s">
-        <v>43</v>
-      </c>
-      <c r="G369" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A370" s="1">
-        <v>368</v>
-      </c>
-      <c r="E370">
-        <v>22.224</v>
-      </c>
-      <c r="F370" t="s">
-        <v>43</v>
-      </c>
-      <c r="G370" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
-        <v>369</v>
-      </c>
-      <c r="E371">
-        <v>22.779599999999999</v>
-      </c>
-      <c r="F371" t="s">
-        <v>42</v>
-      </c>
-      <c r="G371" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A372" s="1">
-        <v>370</v>
-      </c>
-      <c r="E372">
-        <v>22.779599999999999</v>
-      </c>
-      <c r="F372" t="s">
-        <v>46</v>
-      </c>
-      <c r="G372" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
-        <v>371</v>
-      </c>
-      <c r="E373">
-        <v>22.779599999999999</v>
-      </c>
-      <c r="F373" t="s">
-        <v>46</v>
-      </c>
-      <c r="G373" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
-        <v>372</v>
-      </c>
-      <c r="E374">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F374" t="s">
-        <v>41</v>
-      </c>
-      <c r="G374" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="E375">
-        <v>22.224</v>
-      </c>
-      <c r="F375" t="s">
-        <v>42</v>
-      </c>
-      <c r="G375" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
-        <v>374</v>
-      </c>
-      <c r="E376">
-        <v>21.1128</v>
-      </c>
-      <c r="F376" t="s">
-        <v>45</v>
-      </c>
-      <c r="G376" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
-        <v>375</v>
-      </c>
-      <c r="E377">
-        <v>21.1128</v>
-      </c>
-      <c r="F377" t="s">
-        <v>44</v>
-      </c>
-      <c r="G377" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A378" s="1">
-        <v>376</v>
-      </c>
-      <c r="E378">
-        <v>23.890799999999999</v>
-      </c>
-      <c r="F378" t="s">
-        <v>46</v>
-      </c>
-      <c r="G378" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="E379">
-        <v>22.779599999999999</v>
-      </c>
-      <c r="F379" t="s">
-        <v>46</v>
-      </c>
-      <c r="G379" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A380" s="1">
-        <v>378</v>
-      </c>
-      <c r="E380">
-        <v>22.779599999999999</v>
-      </c>
-      <c r="F380" t="s">
-        <v>46</v>
-      </c>
-      <c r="G380" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
-        <v>379</v>
-      </c>
-      <c r="E381">
-        <v>18.8904</v>
-      </c>
-      <c r="F381" t="s">
-        <v>45</v>
-      </c>
-      <c r="G381" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
-        <v>380</v>
-      </c>
-      <c r="E382">
-        <v>18.8904</v>
-      </c>
-      <c r="F382" t="s">
-        <v>12</v>
-      </c>
-      <c r="G382" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
-        <v>381</v>
-      </c>
-      <c r="E383">
-        <v>20.0016</v>
-      </c>
-      <c r="F383" t="s">
-        <v>45</v>
-      </c>
-      <c r="G383" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
-        <v>382</v>
-      </c>
-      <c r="E384">
-        <v>20.0016</v>
-      </c>
-      <c r="F384" t="s">
-        <v>45</v>
-      </c>
-      <c r="G384" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A385" s="1">
-        <v>383</v>
-      </c>
-      <c r="E385">
-        <v>20.0016</v>
-      </c>
-      <c r="F385" t="s">
-        <v>45</v>
-      </c>
-      <c r="G385" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A386" s="1">
-        <v>384</v>
-      </c>
-      <c r="E386">
-        <v>20.0016</v>
-      </c>
-      <c r="F386" t="s">
-        <v>12</v>
-      </c>
-      <c r="G386" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" s="1">
-        <v>385</v>
-      </c>
-      <c r="E387">
-        <v>18.8904</v>
-      </c>
-      <c r="F387" t="s">
-        <v>13</v>
-      </c>
-      <c r="G387" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A388" s="1">
-        <v>386</v>
-      </c>
-      <c r="E388">
-        <v>18.8904</v>
-      </c>
-      <c r="F388" t="s">
-        <v>13</v>
-      </c>
-      <c r="G388" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A389" s="1">
-        <v>387</v>
-      </c>
-      <c r="E389">
-        <v>18.8904</v>
-      </c>
-      <c r="F389" t="s">
-        <v>13</v>
-      </c>
-      <c r="G389" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A390" s="1">
-        <v>388</v>
-      </c>
-      <c r="E390">
-        <v>18.8904</v>
-      </c>
-      <c r="F390" t="s">
-        <v>13</v>
-      </c>
-      <c r="G390" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A391" s="1">
-        <v>389</v>
-      </c>
-      <c r="E391">
-        <v>18.8904</v>
-      </c>
-      <c r="F391" t="s">
-        <v>13</v>
-      </c>
-      <c r="G391" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A392" s="1">
-        <v>390</v>
-      </c>
-      <c r="E392">
-        <v>18.8904</v>
-      </c>
-      <c r="F392" t="s">
-        <v>12</v>
-      </c>
-      <c r="G392" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A393" s="1">
-        <v>391</v>
-      </c>
-      <c r="E393">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F393" t="s">
-        <v>13</v>
-      </c>
-      <c r="G393" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" s="1">
-        <v>392</v>
-      </c>
-      <c r="E394">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F394" t="s">
-        <v>13</v>
-      </c>
-      <c r="G394" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A395" s="1">
-        <v>393</v>
-      </c>
-      <c r="E395">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F395" t="s">
-        <v>13</v>
-      </c>
-      <c r="G395" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
-        <v>394</v>
-      </c>
-      <c r="E396">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F396" t="s">
-        <v>13</v>
-      </c>
-      <c r="G396" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A397" s="1">
-        <v>395</v>
-      </c>
-      <c r="E397">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F397" t="s">
-        <v>13</v>
-      </c>
-      <c r="G397" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
-        <v>396</v>
-      </c>
-      <c r="E398">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F398" t="s">
-        <v>13</v>
-      </c>
-      <c r="G398" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A399" s="1">
-        <v>397</v>
-      </c>
-      <c r="E399">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F399" t="s">
-        <v>12</v>
-      </c>
-      <c r="G399" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
-        <v>398</v>
-      </c>
-      <c r="E400">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F400" t="s">
-        <v>13</v>
-      </c>
-      <c r="G400" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A401" s="1">
-        <v>399</v>
-      </c>
-      <c r="E401">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F401" t="s">
-        <v>13</v>
-      </c>
-      <c r="G401" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
-        <v>400</v>
-      </c>
-      <c r="E402">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F402" t="s">
-        <v>13</v>
-      </c>
-      <c r="G402" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A403" s="1">
-        <v>401</v>
-      </c>
-      <c r="E403">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F403" t="s">
-        <v>13</v>
-      </c>
-      <c r="G403" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A404" s="1">
-        <v>402</v>
-      </c>
-      <c r="E404">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F404" t="s">
-        <v>13</v>
-      </c>
-      <c r="G404" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
-        <v>403</v>
-      </c>
-      <c r="E405">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F405" t="s">
-        <v>13</v>
-      </c>
-      <c r="G405" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A406" s="1">
-        <v>404</v>
-      </c>
-      <c r="E406">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F406" t="s">
-        <v>13</v>
-      </c>
-      <c r="G406" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A407" s="1">
-        <v>405</v>
-      </c>
-      <c r="E407">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F407" t="s">
-        <v>13</v>
-      </c>
-      <c r="G407" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A408" s="1">
-        <v>406</v>
-      </c>
-      <c r="E408">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F408" t="s">
-        <v>12</v>
-      </c>
-      <c r="G408" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A409" s="1">
-        <v>407</v>
-      </c>
-      <c r="E409">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F409" t="s">
-        <v>12</v>
-      </c>
-      <c r="G409" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="1">
-        <v>408</v>
-      </c>
-      <c r="E410">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F410" t="s">
-        <v>10</v>
-      </c>
-      <c r="G410" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="1">
-        <v>409</v>
-      </c>
-      <c r="E411">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F411" t="s">
-        <v>11</v>
-      </c>
-      <c r="G411" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="1">
-        <v>410</v>
-      </c>
-      <c r="E412">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F412" t="s">
-        <v>47</v>
-      </c>
-      <c r="G412" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="1">
-        <v>411</v>
-      </c>
-      <c r="E413">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F413" t="s">
-        <v>48</v>
-      </c>
-      <c r="G413" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="1">
-        <v>412</v>
-      </c>
-      <c r="E414">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F414" t="s">
-        <v>48</v>
-      </c>
-      <c r="G414" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="1">
-        <v>413</v>
-      </c>
-      <c r="E415">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F415" t="s">
-        <v>9</v>
-      </c>
-      <c r="G415" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="1">
-        <v>414</v>
-      </c>
-      <c r="E416">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F416" t="s">
-        <v>8</v>
-      </c>
-      <c r="G416" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="E417">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F417" t="s">
-        <v>8</v>
-      </c>
-      <c r="G417" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="1">
-        <v>416</v>
-      </c>
-      <c r="E418">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F418" t="s">
-        <v>8</v>
-      </c>
-      <c r="G418" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="1">
-        <v>417</v>
-      </c>
-      <c r="E419">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F419" t="s">
-        <v>8</v>
-      </c>
-      <c r="G419" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="1">
-        <v>418</v>
-      </c>
-      <c r="E420">
-        <v>18.8904</v>
-      </c>
-      <c r="F420" t="s">
-        <v>49</v>
-      </c>
-      <c r="G420" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="1">
-        <v>419</v>
-      </c>
-      <c r="E421">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F421" t="s">
-        <v>9</v>
-      </c>
-      <c r="G421" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A422" s="1">
-        <v>420</v>
-      </c>
-      <c r="E422">
-        <v>18.8904</v>
-      </c>
-      <c r="F422" t="s">
-        <v>8</v>
-      </c>
-      <c r="G422" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A423" s="1">
-        <v>421</v>
-      </c>
-      <c r="E423">
-        <v>18.8904</v>
-      </c>
-      <c r="F423" t="s">
-        <v>49</v>
-      </c>
-      <c r="G423" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A424" s="1">
-        <v>422</v>
-      </c>
-      <c r="E424">
-        <v>18.8904</v>
-      </c>
-      <c r="F424" t="s">
-        <v>49</v>
-      </c>
-      <c r="G424" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A425" s="1">
-        <v>423</v>
-      </c>
-      <c r="E425">
-        <v>18.8904</v>
-      </c>
-      <c r="F425" t="s">
-        <v>49</v>
-      </c>
-      <c r="G425" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A426" s="1">
-        <v>424</v>
-      </c>
-      <c r="E426">
-        <v>18.8904</v>
-      </c>
-      <c r="F426" t="s">
-        <v>49</v>
-      </c>
-      <c r="G426" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A427" s="1">
-        <v>425</v>
-      </c>
-      <c r="E427">
-        <v>18.8904</v>
-      </c>
-      <c r="F427" t="s">
-        <v>49</v>
-      </c>
-      <c r="G427" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A428" s="1">
-        <v>426</v>
-      </c>
-      <c r="E428">
-        <v>18.8904</v>
-      </c>
-      <c r="F428" t="s">
-        <v>8</v>
-      </c>
-      <c r="G428" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A429" s="1">
-        <v>427</v>
-      </c>
-      <c r="E429">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F429" t="s">
-        <v>8</v>
-      </c>
-      <c r="G429" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A430" s="1">
-        <v>428</v>
-      </c>
-      <c r="E430">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F430" t="s">
-        <v>8</v>
-      </c>
-      <c r="G430" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A431" s="1">
-        <v>429</v>
-      </c>
-      <c r="E431">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F431" t="s">
-        <v>8</v>
-      </c>
-      <c r="G431" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A432" s="1">
-        <v>430</v>
-      </c>
-      <c r="E432">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F432" t="s">
-        <v>8</v>
-      </c>
-      <c r="G432" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A433" s="1">
-        <v>431</v>
-      </c>
-      <c r="E433">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F433" t="s">
-        <v>8</v>
-      </c>
-      <c r="G433" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A434" s="1">
-        <v>432</v>
-      </c>
-      <c r="E434">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F434" t="s">
-        <v>9</v>
-      </c>
-      <c r="G434" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A435" s="1">
-        <v>433</v>
-      </c>
-      <c r="E435">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F435" t="s">
-        <v>47</v>
-      </c>
-      <c r="G435" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A436" s="1">
-        <v>434</v>
-      </c>
-      <c r="E436">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F436" t="s">
-        <v>47</v>
-      </c>
-      <c r="G436" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A437" s="1">
-        <v>435</v>
-      </c>
-      <c r="E437">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F437" t="s">
-        <v>47</v>
-      </c>
-      <c r="G437" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A438" s="1">
-        <v>436</v>
-      </c>
-      <c r="E438">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F438" t="s">
-        <v>10</v>
-      </c>
-      <c r="G438" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A439" s="1">
-        <v>437</v>
-      </c>
-      <c r="E439">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F439" t="s">
-        <v>10</v>
-      </c>
-      <c r="G439" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="E440">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F440" t="s">
-        <v>10</v>
-      </c>
-      <c r="G440" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="E441">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F441" t="s">
-        <v>11</v>
-      </c>
-      <c r="G441" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="E442">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F442" t="s">
-        <v>10</v>
-      </c>
-      <c r="G442" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="E443">
-        <v>13.89</v>
-      </c>
-      <c r="F443" t="s">
-        <v>12</v>
-      </c>
-      <c r="G443" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="E444">
-        <v>13.89</v>
-      </c>
-      <c r="F444" t="s">
-        <v>12</v>
-      </c>
-      <c r="G444" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="E445">
-        <v>13.89</v>
-      </c>
-      <c r="F445" t="s">
-        <v>12</v>
-      </c>
-      <c r="G445" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="E446">
-        <v>12.2232</v>
-      </c>
-      <c r="F446" t="s">
-        <v>13</v>
-      </c>
-      <c r="G446" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="E447">
-        <v>12.2232</v>
-      </c>
-      <c r="F447" t="s">
-        <v>14</v>
-      </c>
-      <c r="G447" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="E448">
-        <v>12.2232</v>
-      </c>
-      <c r="F448" t="s">
-        <v>14</v>
-      </c>
-      <c r="G448" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="E449">
-        <v>12.7788</v>
-      </c>
-      <c r="F449" t="s">
-        <v>13</v>
-      </c>
-      <c r="G449" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="E450">
-        <v>12.7788</v>
-      </c>
-      <c r="F450" t="s">
-        <v>13</v>
-      </c>
-      <c r="G450" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="E451">
-        <v>12.7788</v>
-      </c>
-      <c r="F451" t="s">
-        <v>13</v>
-      </c>
-      <c r="G451" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="E452">
-        <v>12.2232</v>
-      </c>
-      <c r="F452" t="s">
-        <v>14</v>
-      </c>
-      <c r="G452" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="E453">
-        <v>12.2232</v>
-      </c>
-      <c r="F453" t="s">
-        <v>14</v>
-      </c>
-      <c r="G453" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A454" s="1">
-        <v>452</v>
-      </c>
-      <c r="E454">
-        <v>12.2232</v>
-      </c>
-      <c r="F454" t="s">
-        <v>13</v>
-      </c>
-      <c r="G454" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A455" s="1">
-        <v>453</v>
-      </c>
-      <c r="E455">
-        <v>13.89</v>
-      </c>
-      <c r="F455" t="s">
-        <v>13</v>
-      </c>
-      <c r="G455" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A456" s="1">
-        <v>454</v>
-      </c>
-      <c r="E456">
-        <v>15.001200000000001</v>
-      </c>
-      <c r="F456" t="s">
-        <v>11</v>
-      </c>
-      <c r="G456" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A457" s="1">
-        <v>455</v>
-      </c>
-      <c r="E457">
-        <v>16.112400000000001</v>
-      </c>
-      <c r="F457" t="s">
-        <v>10</v>
-      </c>
-      <c r="G457" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A458" s="1">
-        <v>456</v>
-      </c>
-      <c r="E458">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F458" t="s">
-        <v>47</v>
-      </c>
-      <c r="G458" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A459" s="1">
-        <v>457</v>
-      </c>
-      <c r="E459">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F459" t="s">
-        <v>9</v>
-      </c>
-      <c r="G459" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A460" s="1">
-        <v>458</v>
-      </c>
-      <c r="E460">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F460" t="s">
-        <v>9</v>
-      </c>
-      <c r="G460" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A461" s="1">
-        <v>459</v>
-      </c>
-      <c r="E461">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F461" t="s">
-        <v>8</v>
-      </c>
-      <c r="G461" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A462" s="1">
-        <v>460</v>
-      </c>
-      <c r="E462">
-        <v>17.223600000000001</v>
-      </c>
-      <c r="F462" t="s">
-        <v>9</v>
-      </c>
-      <c r="G462" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A463" s="1">
-        <v>461</v>
-      </c>
-      <c r="E463">
-        <v>17.779199999999999</v>
-      </c>
-      <c r="F463" t="s">
-        <v>8</v>
-      </c>
-      <c r="G463" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A464" s="1">
-        <v>462</v>
-      </c>
-      <c r="E464">
-        <v>18.8904</v>
-      </c>
-      <c r="F464" t="s">
-        <v>15</v>
-      </c>
-      <c r="G464" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A465" s="1">
-        <v>463</v>
-      </c>
-      <c r="E465">
-        <v>20.0016</v>
-      </c>
-      <c r="F465" t="s">
-        <v>50</v>
-      </c>
-      <c r="G465" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A466" s="1">
-        <v>464</v>
-      </c>
-      <c r="E466">
-        <v>21.1128</v>
-      </c>
-      <c r="F466" t="s">
-        <v>16</v>
-      </c>
-      <c r="G466" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A467" s="1">
-        <v>465</v>
-      </c>
-      <c r="E467">
-        <v>20.0016</v>
-      </c>
-      <c r="F467" t="s">
-        <v>50</v>
-      </c>
-      <c r="G467" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A468" s="1">
-        <v>466</v>
-      </c>
-      <c r="E468">
-        <v>18.8904</v>
-      </c>
-      <c r="F468" t="s">
-        <v>15</v>
-      </c>
-      <c r="G468" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A469" s="1">
-        <v>467</v>
-      </c>
-      <c r="E469">
-        <v>20.0016</v>
-      </c>
-      <c r="F469" t="s">
-        <v>15</v>
-      </c>
-      <c r="G469" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A470" s="1">
-        <v>468</v>
-      </c>
-      <c r="E470">
-        <v>20.0016</v>
-      </c>
-      <c r="F470" t="s">
-        <v>50</v>
-      </c>
-      <c r="G470" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A471" s="1">
-        <v>469</v>
-      </c>
-      <c r="E471">
-        <v>21.1128</v>
-      </c>
-      <c r="F471" t="s">
-        <v>33</v>
-      </c>
-      <c r="G471" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A472" s="1">
-        <v>470</v>
-      </c>
-      <c r="E472">
-        <v>22.224</v>
-      </c>
-      <c r="F472" t="s">
-        <v>32</v>
-      </c>
-      <c r="G472" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A473" s="1">
-        <v>471</v>
-      </c>
-      <c r="E473">
-        <v>21.1128</v>
-      </c>
-      <c r="F473" t="s">
-        <v>51</v>
-      </c>
-      <c r="G473" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A474" s="1">
-        <v>472</v>
-      </c>
-      <c r="E474">
-        <v>22.224</v>
-      </c>
-      <c r="F474" t="s">
-        <v>33</v>
-      </c>
-      <c r="G474" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A475" s="1">
-        <v>473</v>
-      </c>
-      <c r="E475">
-        <v>22.224</v>
-      </c>
-      <c r="F475" t="s">
-        <v>33</v>
-      </c>
-      <c r="G475" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="1"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="1"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="1"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="1"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="1"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="1"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="1"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="1"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="1"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="1"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="1"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="1"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="1"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="1"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="1"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="1"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="1"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="1"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="1"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="1"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="1"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="1"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="1"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="1"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="1"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="1"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="1"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="1"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="1"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="1"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="1"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="1"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="1"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="1"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="1"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="1"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="1"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="1"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="1"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="1"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="1"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="1"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="1"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="1"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="1"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="1"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="1"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="1"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="1"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="1"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="1"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="1"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="1"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="1"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="1"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="1"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="1"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="1"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="1"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="1"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="1"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="1"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="1"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="1"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="1"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="1"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="1"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="1"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="1"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="1"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="1"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="1"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="1"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="1"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="1"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="1"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="1"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="1"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="1"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="1"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
@@ -11628,868 +9033,868 @@
     <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1184" s="1"/>
     </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" s="1"/>
     </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" s="1"/>
     </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" s="1"/>
     </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" s="1"/>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1189" s="1"/>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1190" s="1"/>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1191" s="1"/>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1192" s="1"/>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1193" s="1"/>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1194" s="1"/>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1195" s="1"/>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1196" s="1"/>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1197" s="1"/>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1198" s="1"/>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1199" s="1"/>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1200" s="1"/>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1201" s="1"/>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1202" s="1"/>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1203" s="1"/>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1204" s="1"/>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1205" s="1"/>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1206" s="1"/>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1207" s="1"/>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1208" s="1"/>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1209" s="1"/>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1210" s="1"/>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1211" s="1"/>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1212" s="1"/>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1213" s="1"/>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1214" s="1"/>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1215" s="1"/>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1216" s="1"/>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1217" s="1"/>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1218" s="1"/>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1219" s="1"/>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1220" s="1"/>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1221" s="1"/>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1222" s="1"/>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1223" s="1"/>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1224" s="1"/>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1225" s="1"/>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1226" s="1"/>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1227" s="1"/>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1228" s="1"/>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1229" s="1"/>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1230" s="1"/>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1231" s="1"/>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1232" s="1"/>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1233" s="1"/>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1234" s="1"/>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1235" s="1"/>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1236" s="1"/>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1237" s="1"/>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1238" s="1"/>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1239" s="1"/>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1240" s="1"/>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1241" s="1"/>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1242" s="1"/>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1243" s="1"/>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1244" s="1"/>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1245" s="1"/>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1246" s="1"/>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1247" s="1"/>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1248" s="1"/>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1249" s="1"/>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1250" s="1"/>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1251" s="1"/>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1252" s="1"/>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1253" s="1"/>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1254" s="1"/>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1255" s="1"/>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1256" s="1"/>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1257" s="1"/>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1258" s="1"/>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1259" s="1"/>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1260" s="1"/>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1261" s="1"/>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1262" s="1"/>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1263" s="1"/>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1264" s="1"/>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1265" s="1"/>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1266" s="1"/>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1267" s="1"/>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1268" s="1"/>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1269" s="1"/>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1270" s="1"/>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1271" s="1"/>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1272" s="1"/>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1273" s="1"/>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1274" s="1"/>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1275" s="1"/>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1276" s="1"/>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1277" s="1"/>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1278" s="1"/>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1279" s="1"/>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1280" s="1"/>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1281" s="1"/>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1282" s="1"/>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1283" s="1"/>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1284" s="1"/>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1285" s="1"/>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1286" s="1"/>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1287" s="1"/>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1288" s="1"/>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1289" s="1"/>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1290" s="1"/>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1291" s="1"/>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1292" s="1"/>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1293" s="1"/>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1294" s="1"/>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1295" s="1"/>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1296" s="1"/>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1297" s="1"/>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1298" s="1"/>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1299" s="1"/>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1300" s="1"/>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1301" s="1"/>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1302" s="1"/>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1303" s="1"/>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1304" s="1"/>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1305" s="1"/>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1306" s="1"/>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1307" s="1"/>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1308" s="1"/>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1309" s="1"/>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1310" s="1"/>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1311" s="1"/>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1312" s="1"/>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1313" s="1"/>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1314" s="1"/>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1315" s="1"/>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1316" s="1"/>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1317" s="1"/>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1318" s="1"/>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1319" s="1"/>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1320" s="1"/>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1321" s="1"/>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1322" s="1"/>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1323" s="1"/>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1324" s="1"/>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1325" s="1"/>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1326" s="1"/>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1327" s="1"/>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1328" s="1"/>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1329" s="1"/>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1330" s="1"/>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1331" s="1"/>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1332" s="1"/>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1333" s="1"/>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1334" s="1"/>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1335" s="1"/>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1336" s="1"/>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1337" s="1"/>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1338" s="1"/>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1339" s="1"/>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1340" s="1"/>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1341" s="1"/>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1342" s="1"/>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1343" s="1"/>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1344" s="1"/>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1345" s="1"/>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1346" s="1"/>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1347" s="1"/>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1348" s="1"/>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1349" s="1"/>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1350" s="1"/>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1351" s="1"/>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1352" s="1"/>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1353" s="1"/>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1354" s="1"/>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1355" s="1"/>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1356" s="1"/>
-    </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1357" s="1"/>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1358" s="1"/>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1359" s="1"/>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1360" s="1"/>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1361" s="1"/>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1362" s="1"/>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1363" s="1"/>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1364" s="1"/>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1365" s="1"/>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1366" s="1"/>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1367" s="1"/>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1368" s="1"/>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1369" s="1"/>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1370" s="1"/>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1371" s="1"/>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1372" s="1"/>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1373" s="1"/>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1374" s="1"/>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1375" s="1"/>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1376" s="1"/>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1377" s="1"/>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1378" s="1"/>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1379" s="1"/>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1380" s="1"/>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1381" s="1"/>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1382" s="1"/>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1383" s="1"/>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1384" s="1"/>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1385" s="1"/>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1386" s="1"/>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1387" s="1"/>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1388" s="1"/>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1389" s="1"/>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1390" s="1"/>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1391" s="1"/>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1392" s="1"/>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1393" s="1"/>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1394" s="1"/>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1395" s="1"/>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1396" s="1"/>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1397" s="1"/>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1398" s="1"/>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1399" s="1"/>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1400" s="1"/>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1401" s="1"/>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1402" s="1"/>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1403" s="1"/>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1404" s="1"/>
-    </row>
-    <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1405" s="1"/>
-    </row>
-    <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1406" s="1"/>
-    </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1407" s="1"/>
-    </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1408" s="1"/>
-    </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1409" s="1"/>
-    </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1410" s="1"/>
-    </row>
-    <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1411" s="1"/>
-    </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1412" s="1"/>
-    </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1413" s="1"/>
-    </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1414" s="1"/>
-    </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1415" s="1"/>
-    </row>
-    <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1416" s="1"/>
-    </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1417" s="1"/>
-    </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1418" s="1"/>
-    </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1419" s="1"/>
-    </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1420" s="1"/>
-    </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1421" s="1"/>
-    </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1422" s="1"/>
-    </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1423" s="1"/>
-    </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1424" s="1"/>
-    </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1425" s="1"/>
-    </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1426" s="1"/>
-    </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1427" s="1"/>
-    </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1428" s="1"/>
-    </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1429" s="1"/>
-    </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1430" s="1"/>
-    </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1431" s="1"/>
-    </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1432" s="1"/>
-    </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1433" s="1"/>
-    </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1434" s="1"/>
-    </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1435" s="1"/>
-    </row>
-    <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1436" s="1"/>
-    </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1437" s="1"/>
-    </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1438" s="1"/>
-    </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1439" s="1"/>
-    </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1440" s="1"/>
-    </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1441" s="1"/>
-    </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1442" s="1"/>
-    </row>
-    <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1443" s="1"/>
-    </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1444" s="1"/>
-    </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1445" s="1"/>
-    </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1446" s="1"/>
-    </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1447" s="1"/>
-    </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1448" s="1"/>
-    </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1449" s="1"/>
-    </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1450" s="1"/>
-    </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1451" s="1"/>
-    </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1452" s="1"/>
-    </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1453" s="1"/>
-    </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1454" s="1"/>
-    </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1455" s="1"/>
-    </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1456" s="1"/>
-    </row>
-    <row r="1457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1457" s="1"/>
-    </row>
-    <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1458" s="1"/>
-    </row>
-    <row r="1459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1189" s="5"/>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1190" s="5"/>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1191" s="5"/>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1192" s="5"/>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1193" s="5"/>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1194" s="5"/>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1195" s="5"/>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1196" s="5"/>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1197" s="5"/>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1198" s="5"/>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1199" s="5"/>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1200" s="5"/>
+    </row>
+    <row r="1201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1201" s="5"/>
+    </row>
+    <row r="1202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1202" s="5"/>
+    </row>
+    <row r="1203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1203" s="5"/>
+    </row>
+    <row r="1204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1204" s="5"/>
+    </row>
+    <row r="1205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1205" s="5"/>
+    </row>
+    <row r="1206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1206" s="5"/>
+    </row>
+    <row r="1207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1207" s="5"/>
+    </row>
+    <row r="1208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1208" s="5"/>
+    </row>
+    <row r="1209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1209" s="5"/>
+    </row>
+    <row r="1210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1210" s="5"/>
+    </row>
+    <row r="1211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1211" s="5"/>
+    </row>
+    <row r="1212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1212" s="5"/>
+    </row>
+    <row r="1213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1213" s="5"/>
+    </row>
+    <row r="1214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1214" s="5"/>
+    </row>
+    <row r="1215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1215" s="5"/>
+    </row>
+    <row r="1216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1216" s="5"/>
+    </row>
+    <row r="1217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1217" s="5"/>
+    </row>
+    <row r="1218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1218" s="5"/>
+    </row>
+    <row r="1219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1219" s="5"/>
+    </row>
+    <row r="1220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1220" s="5"/>
+    </row>
+    <row r="1221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1221" s="5"/>
+    </row>
+    <row r="1222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1222" s="5"/>
+    </row>
+    <row r="1223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1223" s="5"/>
+    </row>
+    <row r="1224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1224" s="5"/>
+    </row>
+    <row r="1225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1225" s="5"/>
+    </row>
+    <row r="1226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1226" s="5"/>
+    </row>
+    <row r="1227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1227" s="5"/>
+    </row>
+    <row r="1228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1228" s="5"/>
+    </row>
+    <row r="1229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1229" s="5"/>
+    </row>
+    <row r="1230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1230" s="5"/>
+    </row>
+    <row r="1231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1231" s="5"/>
+    </row>
+    <row r="1232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1232" s="5"/>
+    </row>
+    <row r="1233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1233" s="5"/>
+    </row>
+    <row r="1234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1234" s="5"/>
+    </row>
+    <row r="1235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1235" s="5"/>
+    </row>
+    <row r="1236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1236" s="5"/>
+    </row>
+    <row r="1237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1237" s="5"/>
+    </row>
+    <row r="1238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1238" s="5"/>
+    </row>
+    <row r="1239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1239" s="5"/>
+    </row>
+    <row r="1240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1240" s="5"/>
+    </row>
+    <row r="1241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1241" s="5"/>
+    </row>
+    <row r="1242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1242" s="5"/>
+    </row>
+    <row r="1243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1243" s="5"/>
+    </row>
+    <row r="1244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1244" s="5"/>
+    </row>
+    <row r="1245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1245" s="5"/>
+    </row>
+    <row r="1246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1246" s="5"/>
+    </row>
+    <row r="1247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1247" s="5"/>
+    </row>
+    <row r="1248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1248" s="5"/>
+    </row>
+    <row r="1249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1249" s="5"/>
+    </row>
+    <row r="1250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1250" s="5"/>
+    </row>
+    <row r="1251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1251" s="5"/>
+    </row>
+    <row r="1252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1252" s="5"/>
+    </row>
+    <row r="1253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1253" s="5"/>
+    </row>
+    <row r="1254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1254" s="5"/>
+    </row>
+    <row r="1255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1255" s="5"/>
+    </row>
+    <row r="1256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1256" s="5"/>
+    </row>
+    <row r="1257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1257" s="5"/>
+    </row>
+    <row r="1258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1258" s="5"/>
+    </row>
+    <row r="1259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1259" s="5"/>
+    </row>
+    <row r="1260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1260" s="5"/>
+    </row>
+    <row r="1261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1261" s="5"/>
+    </row>
+    <row r="1262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1262" s="5"/>
+    </row>
+    <row r="1263" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1263" s="5"/>
+    </row>
+    <row r="1264" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1264" s="5"/>
+    </row>
+    <row r="1265" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1265" s="5"/>
+    </row>
+    <row r="1266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1266" s="5"/>
+    </row>
+    <row r="1267" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1267" s="5"/>
+    </row>
+    <row r="1268" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1268" s="5"/>
+    </row>
+    <row r="1269" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1269" s="5"/>
+    </row>
+    <row r="1270" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1270" s="5"/>
+    </row>
+    <row r="1271" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1271" s="5"/>
+    </row>
+    <row r="1272" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1272" s="5"/>
+    </row>
+    <row r="1273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1273" s="5"/>
+    </row>
+    <row r="1274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1274" s="5"/>
+    </row>
+    <row r="1275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1275" s="5"/>
+    </row>
+    <row r="1276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1276" s="5"/>
+    </row>
+    <row r="1277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1277" s="5"/>
+    </row>
+    <row r="1278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1278" s="5"/>
+    </row>
+    <row r="1279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1279" s="5"/>
+    </row>
+    <row r="1280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1280" s="5"/>
+    </row>
+    <row r="1281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1281" s="5"/>
+    </row>
+    <row r="1282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1282" s="5"/>
+    </row>
+    <row r="1283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1283" s="5"/>
+    </row>
+    <row r="1284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1284" s="5"/>
+    </row>
+    <row r="1285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1285" s="5"/>
+    </row>
+    <row r="1286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1286" s="5"/>
+    </row>
+    <row r="1287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1287" s="5"/>
+    </row>
+    <row r="1288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1288" s="5"/>
+    </row>
+    <row r="1289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1289" s="5"/>
+    </row>
+    <row r="1290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1290" s="5"/>
+    </row>
+    <row r="1291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1291" s="5"/>
+    </row>
+    <row r="1292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1292" s="5"/>
+    </row>
+    <row r="1293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1293" s="5"/>
+    </row>
+    <row r="1294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1294" s="5"/>
+    </row>
+    <row r="1295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1295" s="5"/>
+    </row>
+    <row r="1296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1296" s="5"/>
+    </row>
+    <row r="1297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1297" s="5"/>
+    </row>
+    <row r="1298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1298" s="5"/>
+    </row>
+    <row r="1299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1299" s="5"/>
+    </row>
+    <row r="1300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1300" s="5"/>
+    </row>
+    <row r="1301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1301" s="5"/>
+    </row>
+    <row r="1302" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1302" s="5"/>
+    </row>
+    <row r="1303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1303" s="5"/>
+    </row>
+    <row r="1304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1304" s="5"/>
+    </row>
+    <row r="1305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1305" s="5"/>
+    </row>
+    <row r="1306" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1306" s="5"/>
+    </row>
+    <row r="1307" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1307" s="5"/>
+    </row>
+    <row r="1308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1308" s="5"/>
+    </row>
+    <row r="1309" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1309" s="5"/>
+    </row>
+    <row r="1310" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1310" s="5"/>
+    </row>
+    <row r="1311" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1311" s="5"/>
+    </row>
+    <row r="1312" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1312" s="5"/>
+    </row>
+    <row r="1313" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1313" s="5"/>
+    </row>
+    <row r="1314" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1314" s="5"/>
+    </row>
+    <row r="1315" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1315" s="5"/>
+    </row>
+    <row r="1316" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1316" s="5"/>
+    </row>
+    <row r="1317" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1317" s="5"/>
+    </row>
+    <row r="1318" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1318" s="5"/>
+    </row>
+    <row r="1319" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1319" s="5"/>
+    </row>
+    <row r="1320" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1320" s="5"/>
+    </row>
+    <row r="1321" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1321" s="5"/>
+    </row>
+    <row r="1322" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1322" s="5"/>
+    </row>
+    <row r="1323" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1323" s="5"/>
+    </row>
+    <row r="1324" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1324" s="5"/>
+    </row>
+    <row r="1325" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1325" s="5"/>
+    </row>
+    <row r="1326" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1326" s="5"/>
+    </row>
+    <row r="1327" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1327" s="5"/>
+    </row>
+    <row r="1328" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1328" s="5"/>
+    </row>
+    <row r="1329" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1329" s="5"/>
+    </row>
+    <row r="1330" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1330" s="5"/>
+    </row>
+    <row r="1331" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1331" s="5"/>
+    </row>
+    <row r="1332" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1332" s="5"/>
+    </row>
+    <row r="1333" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1333" s="5"/>
+    </row>
+    <row r="1334" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1334" s="5"/>
+    </row>
+    <row r="1335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1335" s="5"/>
+    </row>
+    <row r="1336" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1336" s="5"/>
+    </row>
+    <row r="1337" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1337" s="5"/>
+    </row>
+    <row r="1338" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1338" s="5"/>
+    </row>
+    <row r="1339" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1339" s="5"/>
+    </row>
+    <row r="1340" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1340" s="5"/>
+    </row>
+    <row r="1341" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1341" s="5"/>
+    </row>
+    <row r="1342" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1342" s="5"/>
+    </row>
+    <row r="1343" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1343" s="5"/>
+    </row>
+    <row r="1344" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1344" s="5"/>
+    </row>
+    <row r="1345" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1345" s="5"/>
+    </row>
+    <row r="1346" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1346" s="5"/>
+    </row>
+    <row r="1347" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1347" s="5"/>
+    </row>
+    <row r="1348" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1348" s="5"/>
+    </row>
+    <row r="1349" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1349" s="5"/>
+    </row>
+    <row r="1350" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1350" s="5"/>
+    </row>
+    <row r="1351" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1351" s="5"/>
+    </row>
+    <row r="1352" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1352" s="5"/>
+    </row>
+    <row r="1353" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1353" s="5"/>
+    </row>
+    <row r="1354" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1354" s="5"/>
+    </row>
+    <row r="1355" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1355" s="5"/>
+    </row>
+    <row r="1356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1356" s="5"/>
+    </row>
+    <row r="1357" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1357" s="5"/>
+    </row>
+    <row r="1358" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1358" s="5"/>
+    </row>
+    <row r="1359" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1359" s="5"/>
+    </row>
+    <row r="1360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1360" s="5"/>
+    </row>
+    <row r="1361" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1361" s="5"/>
+    </row>
+    <row r="1362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1362" s="5"/>
+    </row>
+    <row r="1363" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1363" s="5"/>
+    </row>
+    <row r="1364" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1364" s="5"/>
+    </row>
+    <row r="1365" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1365" s="5"/>
+    </row>
+    <row r="1366" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1366" s="5"/>
+    </row>
+    <row r="1367" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1367" s="5"/>
+    </row>
+    <row r="1368" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1368" s="5"/>
+    </row>
+    <row r="1369" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1369" s="5"/>
+    </row>
+    <row r="1370" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1370" s="5"/>
+    </row>
+    <row r="1371" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1371" s="5"/>
+    </row>
+    <row r="1372" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1372" s="5"/>
+    </row>
+    <row r="1373" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1373" s="5"/>
+    </row>
+    <row r="1374" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1374" s="5"/>
+    </row>
+    <row r="1375" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1375" s="5"/>
+    </row>
+    <row r="1376" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1376" s="5"/>
+    </row>
+    <row r="1377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1377" s="5"/>
+    </row>
+    <row r="1378" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1378" s="5"/>
+    </row>
+    <row r="1379" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1379" s="5"/>
+    </row>
+    <row r="1380" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1380" s="5"/>
+    </row>
+    <row r="1381" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1381" s="5"/>
+    </row>
+    <row r="1382" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1382" s="5"/>
+    </row>
+    <row r="1383" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1383" s="5"/>
+    </row>
+    <row r="1384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1384" s="5"/>
+    </row>
+    <row r="1385" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1385" s="5"/>
+    </row>
+    <row r="1386" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1386" s="5"/>
+    </row>
+    <row r="1387" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1387" s="5"/>
+    </row>
+    <row r="1388" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1388" s="5"/>
+    </row>
+    <row r="1389" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1389" s="5"/>
+    </row>
+    <row r="1390" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1390" s="5"/>
+    </row>
+    <row r="1391" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1391" s="5"/>
+    </row>
+    <row r="1392" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1392" s="5"/>
+    </row>
+    <row r="1393" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1393" s="5"/>
+    </row>
+    <row r="1394" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1394" s="5"/>
+    </row>
+    <row r="1395" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1395" s="5"/>
+    </row>
+    <row r="1396" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1396" s="5"/>
+    </row>
+    <row r="1397" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1397" s="5"/>
+    </row>
+    <row r="1398" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1398" s="5"/>
+    </row>
+    <row r="1399" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1399" s="5"/>
+    </row>
+    <row r="1400" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1400" s="5"/>
+    </row>
+    <row r="1401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1401" s="5"/>
+    </row>
+    <row r="1402" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1402" s="5"/>
+    </row>
+    <row r="1403" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1403" s="5"/>
+    </row>
+    <row r="1404" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1404" s="5"/>
+    </row>
+    <row r="1405" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1405" s="5"/>
+    </row>
+    <row r="1406" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1406" s="5"/>
+    </row>
+    <row r="1407" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1407" s="5"/>
+    </row>
+    <row r="1408" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1408" s="5"/>
+    </row>
+    <row r="1409" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1409" s="5"/>
+    </row>
+    <row r="1410" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1410" s="5"/>
+    </row>
+    <row r="1411" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1411" s="5"/>
+    </row>
+    <row r="1412" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1412" s="5"/>
+    </row>
+    <row r="1413" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1413" s="5"/>
+    </row>
+    <row r="1414" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1414" s="5"/>
+    </row>
+    <row r="1415" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1415" s="5"/>
+    </row>
+    <row r="1416" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1416" s="5"/>
+    </row>
+    <row r="1417" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1417" s="5"/>
+    </row>
+    <row r="1418" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1418" s="5"/>
+    </row>
+    <row r="1419" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1419" s="5"/>
+    </row>
+    <row r="1420" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1420" s="5"/>
+    </row>
+    <row r="1421" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1421" s="5"/>
+    </row>
+    <row r="1422" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1422" s="5"/>
+    </row>
+    <row r="1423" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1423" s="5"/>
+    </row>
+    <row r="1424" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1424" s="5"/>
+    </row>
+    <row r="1425" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1425" s="5"/>
+    </row>
+    <row r="1426" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1426" s="5"/>
+    </row>
+    <row r="1427" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1427" s="5"/>
+    </row>
+    <row r="1428" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1428" s="5"/>
+    </row>
+    <row r="1429" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1429" s="5"/>
+    </row>
+    <row r="1430" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1430" s="5"/>
+    </row>
+    <row r="1431" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1431" s="5"/>
+    </row>
+    <row r="1432" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1432" s="5"/>
+    </row>
+    <row r="1433" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1433" s="5"/>
+    </row>
+    <row r="1434" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1434" s="5"/>
+    </row>
+    <row r="1435" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1435" s="5"/>
+    </row>
+    <row r="1436" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1436" s="5"/>
+    </row>
+    <row r="1437" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1437" s="5"/>
+    </row>
+    <row r="1438" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1438" s="5"/>
+    </row>
+    <row r="1439" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1439" s="5"/>
+    </row>
+    <row r="1440" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1440" s="5"/>
+    </row>
+    <row r="1441" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1441" s="5"/>
+    </row>
+    <row r="1442" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1442" s="5"/>
+    </row>
+    <row r="1443" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1443" s="5"/>
+    </row>
+    <row r="1444" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1444" s="5"/>
+    </row>
+    <row r="1445" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1445" s="5"/>
+    </row>
+    <row r="1446" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1446" s="5"/>
+    </row>
+    <row r="1447" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1447" s="5"/>
+    </row>
+    <row r="1448" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1448" s="5"/>
+    </row>
+    <row r="1449" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1449" s="5"/>
+    </row>
+    <row r="1450" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1450" s="5"/>
+    </row>
+    <row r="1451" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1451" s="5"/>
+    </row>
+    <row r="1452" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1452" s="5"/>
+    </row>
+    <row r="1453" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1453" s="5"/>
+    </row>
+    <row r="1454" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1454" s="5"/>
+    </row>
+    <row r="1455" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1455" s="5"/>
+    </row>
+    <row r="1456" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1456" s="5"/>
+    </row>
+    <row r="1457" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1457" s="5"/>
+    </row>
+    <row r="1458" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1458" s="5"/>
+    </row>
+    <row r="1459" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1459" s="5"/>
     </row>
-    <row r="1460" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1460" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1460" s="5"/>
     </row>
-    <row r="1461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1461" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1461" s="5"/>
     </row>
-    <row r="1462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1462" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1462" s="5"/>
     </row>
-    <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1463" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1463" s="5"/>
     </row>
-    <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1464" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1464" s="5"/>
     </row>
-    <row r="1465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1465" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1465" s="5"/>
     </row>
-    <row r="1466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1466" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1466" s="5"/>
     </row>
-    <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1467" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1467" s="5"/>
     </row>
-    <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1468" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1468" s="5"/>
     </row>
-    <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1469" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1469" s="5"/>
     </row>
-    <row r="1470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1470" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1470" s="5"/>
     </row>
-    <row r="1471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1471" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1471" s="5"/>
     </row>
-    <row r="1472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1472" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C1472" s="5"/>
     </row>
     <row r="1473" spans="3:3" x14ac:dyDescent="0.2">
@@ -15296,816 +12701,6 @@
     </row>
     <row r="2407" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2407" s="5"/>
-    </row>
-    <row r="2408" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2408" s="5"/>
-    </row>
-    <row r="2409" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2409" s="5"/>
-    </row>
-    <row r="2410" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2410" s="5"/>
-    </row>
-    <row r="2411" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2411" s="5"/>
-    </row>
-    <row r="2412" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2412" s="5"/>
-    </row>
-    <row r="2413" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2413" s="5"/>
-    </row>
-    <row r="2414" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2414" s="5"/>
-    </row>
-    <row r="2415" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2415" s="5"/>
-    </row>
-    <row r="2416" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2416" s="5"/>
-    </row>
-    <row r="2417" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2417" s="5"/>
-    </row>
-    <row r="2418" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2418" s="5"/>
-    </row>
-    <row r="2419" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2419" s="5"/>
-    </row>
-    <row r="2420" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2420" s="5"/>
-    </row>
-    <row r="2421" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2421" s="5"/>
-    </row>
-    <row r="2422" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2422" s="5"/>
-    </row>
-    <row r="2423" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2423" s="5"/>
-    </row>
-    <row r="2424" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2424" s="5"/>
-    </row>
-    <row r="2425" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2425" s="5"/>
-    </row>
-    <row r="2426" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2426" s="5"/>
-    </row>
-    <row r="2427" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2427" s="5"/>
-    </row>
-    <row r="2428" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2428" s="5"/>
-    </row>
-    <row r="2429" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2429" s="5"/>
-    </row>
-    <row r="2430" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2430" s="5"/>
-    </row>
-    <row r="2431" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2431" s="5"/>
-    </row>
-    <row r="2432" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2432" s="5"/>
-    </row>
-    <row r="2433" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2433" s="5"/>
-    </row>
-    <row r="2434" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2434" s="5"/>
-    </row>
-    <row r="2435" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2435" s="5"/>
-    </row>
-    <row r="2436" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2436" s="5"/>
-    </row>
-    <row r="2437" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2437" s="5"/>
-    </row>
-    <row r="2438" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2438" s="5"/>
-    </row>
-    <row r="2439" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2439" s="5"/>
-    </row>
-    <row r="2440" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2440" s="5"/>
-    </row>
-    <row r="2441" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2441" s="5"/>
-    </row>
-    <row r="2442" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2442" s="5"/>
-    </row>
-    <row r="2443" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2443" s="5"/>
-    </row>
-    <row r="2444" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2444" s="5"/>
-    </row>
-    <row r="2445" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2445" s="5"/>
-    </row>
-    <row r="2446" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2446" s="5"/>
-    </row>
-    <row r="2447" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2447" s="5"/>
-    </row>
-    <row r="2448" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2448" s="5"/>
-    </row>
-    <row r="2449" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2449" s="5"/>
-    </row>
-    <row r="2450" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2450" s="5"/>
-    </row>
-    <row r="2451" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2451" s="5"/>
-    </row>
-    <row r="2452" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2452" s="5"/>
-    </row>
-    <row r="2453" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2453" s="5"/>
-    </row>
-    <row r="2454" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2454" s="5"/>
-    </row>
-    <row r="2455" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2455" s="5"/>
-    </row>
-    <row r="2456" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2456" s="5"/>
-    </row>
-    <row r="2457" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2457" s="5"/>
-    </row>
-    <row r="2458" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2458" s="5"/>
-    </row>
-    <row r="2459" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2459" s="5"/>
-    </row>
-    <row r="2460" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2460" s="5"/>
-    </row>
-    <row r="2461" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2461" s="5"/>
-    </row>
-    <row r="2462" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2462" s="5"/>
-    </row>
-    <row r="2463" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2463" s="5"/>
-    </row>
-    <row r="2464" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2464" s="5"/>
-    </row>
-    <row r="2465" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2465" s="5"/>
-    </row>
-    <row r="2466" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2466" s="5"/>
-    </row>
-    <row r="2467" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2467" s="5"/>
-    </row>
-    <row r="2468" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2468" s="5"/>
-    </row>
-    <row r="2469" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2469" s="5"/>
-    </row>
-    <row r="2470" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2470" s="5"/>
-    </row>
-    <row r="2471" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2471" s="5"/>
-    </row>
-    <row r="2472" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2472" s="5"/>
-    </row>
-    <row r="2473" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2473" s="5"/>
-    </row>
-    <row r="2474" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2474" s="5"/>
-    </row>
-    <row r="2475" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2475" s="5"/>
-    </row>
-    <row r="2476" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2476" s="5"/>
-    </row>
-    <row r="2477" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2477" s="5"/>
-    </row>
-    <row r="2478" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2478" s="5"/>
-    </row>
-    <row r="2479" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2479" s="5"/>
-    </row>
-    <row r="2480" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2480" s="5"/>
-    </row>
-    <row r="2481" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2481" s="5"/>
-    </row>
-    <row r="2482" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2482" s="5"/>
-    </row>
-    <row r="2483" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2483" s="5"/>
-    </row>
-    <row r="2484" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2484" s="5"/>
-    </row>
-    <row r="2485" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2485" s="5"/>
-    </row>
-    <row r="2486" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2486" s="5"/>
-    </row>
-    <row r="2487" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2487" s="5"/>
-    </row>
-    <row r="2488" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2488" s="5"/>
-    </row>
-    <row r="2489" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2489" s="5"/>
-    </row>
-    <row r="2490" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2490" s="5"/>
-    </row>
-    <row r="2491" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2491" s="5"/>
-    </row>
-    <row r="2492" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2492" s="5"/>
-    </row>
-    <row r="2493" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2493" s="5"/>
-    </row>
-    <row r="2494" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2494" s="5"/>
-    </row>
-    <row r="2495" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2495" s="5"/>
-    </row>
-    <row r="2496" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2496" s="5"/>
-    </row>
-    <row r="2497" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2497" s="5"/>
-    </row>
-    <row r="2498" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2498" s="5"/>
-    </row>
-    <row r="2499" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2499" s="5"/>
-    </row>
-    <row r="2500" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2500" s="5"/>
-    </row>
-    <row r="2501" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2501" s="5"/>
-    </row>
-    <row r="2502" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2502" s="5"/>
-    </row>
-    <row r="2503" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2503" s="5"/>
-    </row>
-    <row r="2504" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2504" s="5"/>
-    </row>
-    <row r="2505" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2505" s="5"/>
-    </row>
-    <row r="2506" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2506" s="5"/>
-    </row>
-    <row r="2507" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2507" s="5"/>
-    </row>
-    <row r="2508" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2508" s="5"/>
-    </row>
-    <row r="2509" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2509" s="5"/>
-    </row>
-    <row r="2510" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2510" s="5"/>
-    </row>
-    <row r="2511" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2511" s="5"/>
-    </row>
-    <row r="2512" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2512" s="5"/>
-    </row>
-    <row r="2513" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2513" s="5"/>
-    </row>
-    <row r="2514" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2514" s="5"/>
-    </row>
-    <row r="2515" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2515" s="5"/>
-    </row>
-    <row r="2516" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2516" s="5"/>
-    </row>
-    <row r="2517" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2517" s="5"/>
-    </row>
-    <row r="2518" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2518" s="5"/>
-    </row>
-    <row r="2519" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2519" s="5"/>
-    </row>
-    <row r="2520" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2520" s="5"/>
-    </row>
-    <row r="2521" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2521" s="5"/>
-    </row>
-    <row r="2522" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2522" s="5"/>
-    </row>
-    <row r="2523" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2523" s="5"/>
-    </row>
-    <row r="2524" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2524" s="5"/>
-    </row>
-    <row r="2525" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2525" s="5"/>
-    </row>
-    <row r="2526" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2526" s="5"/>
-    </row>
-    <row r="2527" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2527" s="5"/>
-    </row>
-    <row r="2528" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2528" s="5"/>
-    </row>
-    <row r="2529" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2529" s="5"/>
-    </row>
-    <row r="2530" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2530" s="5"/>
-    </row>
-    <row r="2531" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2531" s="5"/>
-    </row>
-    <row r="2532" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2532" s="5"/>
-    </row>
-    <row r="2533" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2533" s="5"/>
-    </row>
-    <row r="2534" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2534" s="5"/>
-    </row>
-    <row r="2535" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2535" s="5"/>
-    </row>
-    <row r="2536" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2536" s="5"/>
-    </row>
-    <row r="2537" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2537" s="5"/>
-    </row>
-    <row r="2538" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2538" s="5"/>
-    </row>
-    <row r="2539" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2539" s="5"/>
-    </row>
-    <row r="2540" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2540" s="5"/>
-    </row>
-    <row r="2541" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2541" s="5"/>
-    </row>
-    <row r="2542" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2542" s="5"/>
-    </row>
-    <row r="2543" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2543" s="5"/>
-    </row>
-    <row r="2544" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2544" s="5"/>
-    </row>
-    <row r="2545" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2545" s="5"/>
-    </row>
-    <row r="2546" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2546" s="5"/>
-    </row>
-    <row r="2547" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2547" s="5"/>
-    </row>
-    <row r="2548" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2548" s="5"/>
-    </row>
-    <row r="2549" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2549" s="5"/>
-    </row>
-    <row r="2550" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2550" s="5"/>
-    </row>
-    <row r="2551" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2551" s="5"/>
-    </row>
-    <row r="2552" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2552" s="5"/>
-    </row>
-    <row r="2553" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2553" s="5"/>
-    </row>
-    <row r="2554" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2554" s="5"/>
-    </row>
-    <row r="2555" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2555" s="5"/>
-    </row>
-    <row r="2556" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2556" s="5"/>
-    </row>
-    <row r="2557" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2557" s="5"/>
-    </row>
-    <row r="2558" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2558" s="5"/>
-    </row>
-    <row r="2559" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2559" s="5"/>
-    </row>
-    <row r="2560" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2560" s="5"/>
-    </row>
-    <row r="2561" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2561" s="5"/>
-    </row>
-    <row r="2562" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2562" s="5"/>
-    </row>
-    <row r="2563" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2563" s="5"/>
-    </row>
-    <row r="2564" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2564" s="5"/>
-    </row>
-    <row r="2565" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2565" s="5"/>
-    </row>
-    <row r="2566" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2566" s="5"/>
-    </row>
-    <row r="2567" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2567" s="5"/>
-    </row>
-    <row r="2568" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2568" s="5"/>
-    </row>
-    <row r="2569" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2569" s="5"/>
-    </row>
-    <row r="2570" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2570" s="5"/>
-    </row>
-    <row r="2571" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2571" s="5"/>
-    </row>
-    <row r="2572" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2572" s="5"/>
-    </row>
-    <row r="2573" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2573" s="5"/>
-    </row>
-    <row r="2574" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2574" s="5"/>
-    </row>
-    <row r="2575" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2575" s="5"/>
-    </row>
-    <row r="2576" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2576" s="5"/>
-    </row>
-    <row r="2577" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2577" s="5"/>
-    </row>
-    <row r="2578" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2578" s="5"/>
-    </row>
-    <row r="2579" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2579" s="5"/>
-    </row>
-    <row r="2580" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2580" s="5"/>
-    </row>
-    <row r="2581" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2581" s="5"/>
-    </row>
-    <row r="2582" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2582" s="5"/>
-    </row>
-    <row r="2583" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2583" s="5"/>
-    </row>
-    <row r="2584" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2584" s="5"/>
-    </row>
-    <row r="2585" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2585" s="5"/>
-    </row>
-    <row r="2586" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2586" s="5"/>
-    </row>
-    <row r="2587" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2587" s="5"/>
-    </row>
-    <row r="2588" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2588" s="5"/>
-    </row>
-    <row r="2589" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2589" s="5"/>
-    </row>
-    <row r="2590" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2590" s="5"/>
-    </row>
-    <row r="2591" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2591" s="5"/>
-    </row>
-    <row r="2592" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2592" s="5"/>
-    </row>
-    <row r="2593" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2593" s="5"/>
-    </row>
-    <row r="2594" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2594" s="5"/>
-    </row>
-    <row r="2595" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2595" s="5"/>
-    </row>
-    <row r="2596" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2596" s="5"/>
-    </row>
-    <row r="2597" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2597" s="5"/>
-    </row>
-    <row r="2598" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2598" s="5"/>
-    </row>
-    <row r="2599" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2599" s="5"/>
-    </row>
-    <row r="2600" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2600" s="5"/>
-    </row>
-    <row r="2601" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2601" s="5"/>
-    </row>
-    <row r="2602" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2602" s="5"/>
-    </row>
-    <row r="2603" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2603" s="5"/>
-    </row>
-    <row r="2604" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2604" s="5"/>
-    </row>
-    <row r="2605" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2605" s="5"/>
-    </row>
-    <row r="2606" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2606" s="5"/>
-    </row>
-    <row r="2607" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2607" s="5"/>
-    </row>
-    <row r="2608" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2608" s="5"/>
-    </row>
-    <row r="2609" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2609" s="5"/>
-    </row>
-    <row r="2610" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2610" s="5"/>
-    </row>
-    <row r="2611" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2611" s="5"/>
-    </row>
-    <row r="2612" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2612" s="5"/>
-    </row>
-    <row r="2613" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2613" s="5"/>
-    </row>
-    <row r="2614" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2614" s="5"/>
-    </row>
-    <row r="2615" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2615" s="5"/>
-    </row>
-    <row r="2616" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2616" s="5"/>
-    </row>
-    <row r="2617" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2617" s="5"/>
-    </row>
-    <row r="2618" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2618" s="5"/>
-    </row>
-    <row r="2619" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2619" s="5"/>
-    </row>
-    <row r="2620" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2620" s="5"/>
-    </row>
-    <row r="2621" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2621" s="5"/>
-    </row>
-    <row r="2622" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2622" s="5"/>
-    </row>
-    <row r="2623" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2623" s="5"/>
-    </row>
-    <row r="2624" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2624" s="5"/>
-    </row>
-    <row r="2625" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2625" s="5"/>
-    </row>
-    <row r="2626" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2626" s="5"/>
-    </row>
-    <row r="2627" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2627" s="5"/>
-    </row>
-    <row r="2628" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2628" s="5"/>
-    </row>
-    <row r="2629" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2629" s="5"/>
-    </row>
-    <row r="2630" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2630" s="5"/>
-    </row>
-    <row r="2631" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2631" s="5"/>
-    </row>
-    <row r="2632" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2632" s="5"/>
-    </row>
-    <row r="2633" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2633" s="5"/>
-    </row>
-    <row r="2634" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2634" s="5"/>
-    </row>
-    <row r="2635" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2635" s="5"/>
-    </row>
-    <row r="2636" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2636" s="5"/>
-    </row>
-    <row r="2637" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2637" s="5"/>
-    </row>
-    <row r="2638" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2638" s="5"/>
-    </row>
-    <row r="2639" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2639" s="5"/>
-    </row>
-    <row r="2640" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2640" s="5"/>
-    </row>
-    <row r="2641" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2641" s="5"/>
-    </row>
-    <row r="2642" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2642" s="5"/>
-    </row>
-    <row r="2643" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2643" s="5"/>
-    </row>
-    <row r="2644" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2644" s="5"/>
-    </row>
-    <row r="2645" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2645" s="5"/>
-    </row>
-    <row r="2646" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2646" s="5"/>
-    </row>
-    <row r="2647" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2647" s="5"/>
-    </row>
-    <row r="2648" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2648" s="5"/>
-    </row>
-    <row r="2649" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2649" s="5"/>
-    </row>
-    <row r="2650" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2650" s="5"/>
-    </row>
-    <row r="2651" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2651" s="5"/>
-    </row>
-    <row r="2652" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2652" s="5"/>
-    </row>
-    <row r="2653" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2653" s="5"/>
-    </row>
-    <row r="2654" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2654" s="5"/>
-    </row>
-    <row r="2655" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2655" s="5"/>
-    </row>
-    <row r="2656" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2656" s="5"/>
-    </row>
-    <row r="2657" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2657" s="5"/>
-    </row>
-    <row r="2658" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2658" s="5"/>
-    </row>
-    <row r="2659" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2659" s="5"/>
-    </row>
-    <row r="2660" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2660" s="5"/>
-    </row>
-    <row r="2661" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2661" s="5"/>
-    </row>
-    <row r="2662" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2662" s="5"/>
-    </row>
-    <row r="2663" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2663" s="5"/>
-    </row>
-    <row r="2664" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2664" s="5"/>
-    </row>
-    <row r="2665" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2665" s="5"/>
-    </row>
-    <row r="2666" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2666" s="5"/>
-    </row>
-    <row r="2667" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2667" s="5"/>
-    </row>
-    <row r="2668" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2668" s="5"/>
-    </row>
-    <row r="2669" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2669" s="5"/>
-    </row>
-    <row r="2670" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2670" s="5"/>
-    </row>
-    <row r="2671" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2671" s="5"/>
-    </row>
-    <row r="2672" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2672" s="5"/>
-    </row>
-    <row r="2673" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2673" s="5"/>
-    </row>
-    <row r="2674" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2674" s="5"/>
-    </row>
-    <row r="2675" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2675" s="5"/>
-    </row>
-    <row r="2676" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2676" s="5"/>
-    </row>
-    <row r="2677" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2677" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
